--- a/biology/Zoologie/Aile_vestigiale/Aile_vestigiale.xlsx
+++ b/biology/Zoologie/Aile_vestigiale/Aile_vestigiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une aile vestigiale est un organe vestigial, c'est-à-dire atrophié au cours de l'évolution. Un animal qui a des ailes trop petites pour voler est un microptère, du grec ancien mikros (petit), et pterón (aile).
 </t>
@@ -511,7 +523,9 @@
           <t>Oiseaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains oiseaux ont des ailes vestigiales, avec lesquelles ils sont incapables de voler (ex: autruches, kiwis).
 </t>
@@ -542,7 +556,9 @@
           <t>Insectes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les insectes, en particulier chez la mouche du vinaigre Drosophila melanogaster, on a mis en évidence un gène nommé "aile vestigiale", dont l'expression inhibe la prolifération des cellules et perturbe la forme de la lame de l'aile en altérant l'orientation préférentielle des divisions cellulaires.
 Ce gène est un cas classique de monohybridisme dans la théorie de transmission des caractères de Mendel (gènes mendéliens). Il est abrégé vg pour un allèle mutant déterminant le phénotype ailes vestigiales et vg+ pour le type "sauvage" aux ailes normales.
